--- a/data/trans_camb/P19C04-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P19C04-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-2.491543749371547</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-1.082372459581699</v>
+        <v>-1.082372459581701</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>5.614651748190597</v>
@@ -664,7 +664,7 @@
         <v>-1.344272216579554</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2.051954972286738</v>
+        <v>2.051954972286735</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3594201214919296</v>
+        <v>-0.5921787240436859</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.166098501557842</v>
+        <v>-8.002838464463034</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.791564057766555</v>
+        <v>-1.702036164389994</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2017836263503236</v>
+        <v>-0.2270281410444319</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.291639031879726</v>
+        <v>-6.310190951264419</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.854165361367404</v>
+        <v>-5.097784974303619</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.286705616550026</v>
+        <v>2.099859316051861</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-4.436780655487822</v>
+        <v>-4.503928775183204</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.297403523059217</v>
+        <v>-1.737512855242224</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.07045642815797</v>
+        <v>10.76353239652973</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.727624758980967</v>
+        <v>3.436012317095539</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.58596176280979</v>
+        <v>11.4804338895444</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.149439514938365</v>
+        <v>8.025364769513359</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.745394148556103</v>
+        <v>1.35573701559294</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.105538711100483</v>
+        <v>2.545778615058133</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.866031639898512</v>
+        <v>8.688704602485254</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.657921580315474</v>
+        <v>1.742267033307008</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.443381184188716</v>
+        <v>5.489598343155928</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.1300767098607594</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.05650771672052621</v>
+        <v>-0.05650771672052636</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.25400575282912</v>
@@ -769,7 +769,7 @@
         <v>-0.06081461356701198</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.09283004376453373</v>
+        <v>0.0928300437645336</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.01018599653434178</v>
+        <v>-0.01969051552551899</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2322325393808981</v>
+        <v>-0.2494243953444733</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.0582735546299152</v>
+        <v>-0.05684912752787354</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.008215007166779078</v>
+        <v>-0.01541797517058408</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2936807993878629</v>
+        <v>-0.2981712453581343</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2274076141675676</v>
+        <v>-0.2393033501481305</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09558140524763468</v>
+        <v>0.08793485857337813</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1835127318332906</v>
+        <v>-0.1856367633818193</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.05462247720167002</v>
+        <v>-0.07165990540222844</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4741588601218983</v>
+        <v>0.4389942893179437</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1625238377926513</v>
+        <v>0.1396128681616887</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.432223097082849</v>
+        <v>0.4681920405454971</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.491768481685915</v>
+        <v>0.4718596276489248</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.102215833119925</v>
+        <v>0.07915805637113973</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1660476978843129</v>
+        <v>0.1502305267925138</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4354485481807656</v>
+        <v>0.4368015340485409</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.08192384942418948</v>
+        <v>0.08846953880685687</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2650237229861822</v>
+        <v>0.2731051905440289</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-8.413943587695627</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-6.01748020485183</v>
+        <v>-6.017480204851832</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.908932119404447</v>
@@ -878,7 +878,7 @@
         <v>-5.660986203771956</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-4.77781201537453</v>
+        <v>-4.777812015374527</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.046055074191675</v>
+        <v>-1.958416660800184</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-12.70290473030659</v>
+        <v>-12.68518284526568</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.02496573042695</v>
+        <v>-9.95883064200353</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.619049113834428</v>
+        <v>-1.391046841856174</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.528666250254278</v>
+        <v>-6.832156495774861</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-6.297274600431313</v>
+        <v>-6.324043260400329</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.5912333987531067</v>
+        <v>-0.9485339917214647</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-8.243863403233068</v>
+        <v>-8.395654160223987</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-7.321627656478954</v>
+        <v>-7.297905802034212</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.793672073356793</v>
+        <v>6.362385412438819</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-4.276503681498886</v>
+        <v>-4.76327871972198</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-2.023014099051522</v>
+        <v>-1.854476778876728</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.908992331072485</v>
+        <v>5.571320688580395</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8041257978179644</v>
+        <v>0.7882788820687865</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.1712057083271949</v>
+        <v>-0.5517037789983923</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.771930894442542</v>
+        <v>4.639909311402415</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-2.960095393283342</v>
+        <v>-3.086722993714945</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-2.175820306567201</v>
+        <v>-2.218164671123152</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.3507740723231437</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.2508664355281078</v>
+        <v>-0.2508664355281079</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1185784500150288</v>
@@ -983,7 +983,7 @@
         <v>-0.2841705742626891</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.2398369356956747</v>
+        <v>-0.2398369356956745</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.07931774436816001</v>
+        <v>-0.07378807484231584</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4876241134895223</v>
+        <v>-0.4819839107859427</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3794519235106171</v>
+        <v>-0.3853099542273411</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.08814037747153985</v>
+        <v>-0.07521783142782969</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3639548921285983</v>
+        <v>-0.3787277728043345</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3429774571090307</v>
+        <v>-0.350486389827574</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.02761039772375844</v>
+        <v>-0.04565424412473581</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3894739854036324</v>
+        <v>-0.3927117438502936</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3420263210498858</v>
+        <v>-0.3377294141625344</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3163188019215811</v>
+        <v>0.2937203359715289</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1984280573668639</v>
+        <v>-0.2164274835138656</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.08389970475258665</v>
+        <v>-0.08110600722058085</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4190464031098566</v>
+        <v>0.3980239009082007</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05377371826473764</v>
+        <v>0.05854193497379429</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.005525594673095968</v>
+        <v>-0.03808951025548308</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2598745175242669</v>
+        <v>0.2469047283113457</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1625197226177864</v>
+        <v>-0.1671879040893318</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.1207849961951992</v>
+        <v>-0.1192987343032994</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-2.694889407585643</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-3.446472809450757</v>
+        <v>-3.446472809450754</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>3.154838021640856</v>
@@ -1083,7 +1083,7 @@
         <v>-0.4221746486598815</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.3220388758359685</v>
+        <v>-0.3220388758359671</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>3.477578334585651</v>
@@ -1092,7 +1092,7 @@
         <v>-1.588701253658686</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-1.998117774360993</v>
+        <v>-1.99811777436099</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5326679543908903</v>
+        <v>0.2591583255166126</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.172033252123317</v>
+        <v>-6.386774840962486</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.073118836447689</v>
+        <v>-6.685031920163722</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.0094546264205918</v>
+        <v>0.2498324070611148</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.824870052610495</v>
+        <v>-3.518719986883486</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.524643012116682</v>
+        <v>-3.037621025977027</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9329842864975877</v>
+        <v>1.03316812711134</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.073143541609415</v>
+        <v>-4.099453570843029</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-4.395602047592047</v>
+        <v>-4.217923893503409</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.189464708436539</v>
+        <v>8.325721446590464</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.371349963267168</v>
+        <v>0.7053809812241103</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.1944140136739914</v>
+        <v>-0.2906706181002236</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.313518619857575</v>
+        <v>6.449977517116125</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.924037317930369</v>
+        <v>2.910111485320845</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.048734993481514</v>
+        <v>2.244155321655541</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.011347962585211</v>
+        <v>6.155436331977785</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6553368088831746</v>
+        <v>0.9688383412563095</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-0.08126593436387759</v>
+        <v>0.1017727141065942</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.1618925301960517</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2070430800623294</v>
+        <v>-0.2070430800623292</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.2997173387516991</v>
@@ -1188,7 +1188,7 @@
         <v>-0.04010762559497823</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.03059448192840792</v>
+        <v>-0.03059448192840779</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.2539085141272517</v>
@@ -1197,7 +1197,7 @@
         <v>-0.115995884462698</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.1458886231529561</v>
+        <v>-0.1458886231529559</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.02847647448138184</v>
+        <v>0.01417877362413097</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3423992294756899</v>
+        <v>-0.3454725944081131</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3741856278097662</v>
+        <v>-0.3686765284337791</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.007464618110670985</v>
+        <v>0.01856102570026856</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3218940408390517</v>
+        <v>-0.3030924720161211</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2751332384043491</v>
+        <v>-0.2485215957714602</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06428343177433779</v>
+        <v>0.06212107200578663</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2857776752182065</v>
+        <v>-0.2804624949990426</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2883467365459538</v>
+        <v>-0.2825862101200818</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5516259158163537</v>
+        <v>0.5762188552621802</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.0879149844123852</v>
+        <v>0.04996233022147287</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.008909677679361797</v>
+        <v>-0.02269592691849334</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.685524825279197</v>
+        <v>0.7039683418833227</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3150733488466381</v>
+        <v>0.3347835968945475</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2307008249057876</v>
+        <v>0.2464230968193433</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4869327487599897</v>
+        <v>0.4854400376226529</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.05208885418557212</v>
+        <v>0.07547467015648476</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.006143265437957747</v>
+        <v>0.008714599024834917</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>1.531458899781821</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-1.764343198552591</v>
+        <v>-1.76434319855259</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.898938047052947</v>
+        <v>-2.129047254462505</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.087735967176946</v>
+        <v>-1.506667598005579</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.220128549573771</v>
+        <v>-5.437640275436569</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.791890099670682</v>
+        <v>-4.654201670742548</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.440222580769243</v>
+        <v>-4.965638855317818</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-6.599912249898929</v>
+        <v>-6.231248191721891</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.54533849551232</v>
+        <v>-2.023855565436461</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.929906382565489</v>
+        <v>-1.93477512532456</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-4.556090914249008</v>
+        <v>-4.610827832076354</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.610634624009803</v>
+        <v>7.762455025193073</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.497860404446758</v>
+        <v>8.530099256106723</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.761886330954333</v>
+        <v>2.528037732171686</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.437482396937739</v>
+        <v>4.076075538852103</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.887357741778991</v>
+        <v>3.789392350579113</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.035297986532573</v>
+        <v>1.073750424775891</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.961235884972607</v>
+        <v>5.11098272062236</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.134942353565632</v>
+        <v>5.00808256516784</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.8366117429128412</v>
+        <v>0.8953171966794684</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.1488882535511646</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1715292376013454</v>
+        <v>-0.1715292376013453</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2185130544779733</v>
+        <v>-0.1546591172050417</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1058624882944107</v>
+        <v>-0.1075461692275071</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3740827819957239</v>
+        <v>-0.3965952379021679</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3841366426360627</v>
+        <v>-0.390645517285489</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3783799134455941</v>
+        <v>-0.4006372593247538</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5056057869462954</v>
+        <v>-0.49763631037238</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1319722080976972</v>
+        <v>-0.1618574120693487</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.159162384793613</v>
+        <v>-0.157623374453513</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3633194559463905</v>
+        <v>-0.3720252738598427</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8653092493402184</v>
+        <v>0.9295382095723151</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.000789398602673</v>
+        <v>1.034555982994374</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3314018688976564</v>
+        <v>0.3186706257214463</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5968141057550557</v>
+        <v>0.5623019647568438</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5663621496301586</v>
+        <v>0.5574865454763769</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1711593238935813</v>
+        <v>0.1570632094335814</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5665962810284696</v>
+        <v>0.6086891130910845</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6009012194299878</v>
+        <v>0.6017513693621623</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1085758342208904</v>
+        <v>0.1058702788760355</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-2.139342669357214</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-3.943288612498844</v>
+        <v>-3.943288612498838</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>2.81033521276563</v>
@@ -1520,7 +1520,7 @@
         <v>-1.786426783347378</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-3.41604754636865</v>
+        <v>-3.416047546368653</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.359505075433481</v>
+        <v>2.300588744219521</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.265431594867192</v>
+        <v>-4.509322671182827</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.963037656164625</v>
+        <v>-5.991580836166712</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.8422698168464304</v>
+        <v>0.8038850082295377</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.308533134038029</v>
+        <v>-3.439150764781064</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.484848370060999</v>
+        <v>-4.649875399425896</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.203933187769276</v>
+        <v>2.294915507593945</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.150030757643928</v>
+        <v>-3.333490024951652</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.718411265270958</v>
+        <v>-4.671418994347987</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.924950536701929</v>
+        <v>7.036589802733206</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1551810245157707</v>
+        <v>0.007278683051167197</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.796818615487426</v>
+        <v>-1.981390764638403</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.884972649218046</v>
+        <v>4.633169684466712</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.4902123747987535</v>
+        <v>0.3965056987840603</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.5454734888032</v>
+        <v>-1.391849017530512</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.275904006992741</v>
+        <v>5.447604317844635</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.2785957201047659</v>
+        <v>-0.4763728549570337</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-2.063989161473692</v>
+        <v>-2.015179005992907</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.1068085018850009</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1968720370204798</v>
+        <v>-0.1968720370204795</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.1933303193638271</v>
@@ -1625,7 +1625,7 @@
         <v>-0.1042118628077364</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.1992763888032517</v>
+        <v>-0.1992763888032519</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1097307496106631</v>
+        <v>0.1110584473721536</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2049114171396081</v>
+        <v>-0.2110095685002942</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.281168581448566</v>
+        <v>-0.2835992999788526</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.05258073953301103</v>
+        <v>0.05313774904560022</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2124965924129365</v>
+        <v>-0.2180674934382101</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2877964275495191</v>
+        <v>-0.2943585401174987</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1242871563387025</v>
+        <v>0.1275091220962113</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1774772536805768</v>
+        <v>-0.1825819298631401</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2624688967511979</v>
+        <v>-0.260111436996665</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3686359607039251</v>
+        <v>0.3717234968452893</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.008680470507111645</v>
+        <v>0.0008541507361226645</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.09670249503303951</v>
+        <v>-0.0995096923120774</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3595123363606194</v>
+        <v>0.3402403313479291</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.03687450975947921</v>
+        <v>0.02948855134145989</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.1128381108378857</v>
+        <v>-0.1046508668921109</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3264354142535834</v>
+        <v>0.3311869959247506</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.01795607297830138</v>
+        <v>-0.02821217981369329</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.1251896338145358</v>
+        <v>-0.1213274915502333</v>
       </c>
     </row>
     <row r="34">
